--- a/data/trans_dic/P6905-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,71; 46,94</t>
+          <t>23,16; 47,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,32; 49,02</t>
+          <t>21,07; 47,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,7; 56,19</t>
+          <t>27,79; 57,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,26; 49,51</t>
+          <t>22,58; 50,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,41; 52,34</t>
+          <t>23,86; 53,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,17; 59,31</t>
+          <t>30,76; 59,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,58; 46,07</t>
+          <t>17,97; 46,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,92; 54,03</t>
+          <t>32,23; 54,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,22; 43,99</t>
+          <t>27,63; 44,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,84; 49,78</t>
+          <t>29,36; 49,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,93; 46,35</t>
+          <t>26,75; 48,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,17; 49,32</t>
+          <t>30,98; 48,88</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,44; 43,03</t>
+          <t>14,6; 42,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,11; 48,1</t>
+          <t>15,94; 47,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,45; 53,48</t>
+          <t>18,91; 54,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,63; 39,95</t>
+          <t>14,09; 39,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,02; 81,38</t>
+          <t>54,2; 81,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,09; 82,82</t>
+          <t>40,29; 81,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,28; 60,96</t>
+          <t>23,65; 60,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,37; 50,18</t>
+          <t>22,64; 48,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,06; 58,33</t>
+          <t>37,06; 58,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,2; 56,04</t>
+          <t>30,37; 58,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,91; 52,36</t>
+          <t>24,91; 50,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,83; 39,66</t>
+          <t>21,32; 40,81</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,06; 52,45</t>
+          <t>31,71; 51,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,55; 35,18</t>
+          <t>14,84; 35,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,37; 34,3</t>
+          <t>12,86; 32,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,86; 36,92</t>
+          <t>11,43; 36,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,52; 70,28</t>
+          <t>14,53; 69,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,62; 56,93</t>
+          <t>22,11; 55,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,48; 89,68</t>
+          <t>24,27; 90,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,79; 49,75</t>
+          <t>15,55; 50,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,22; 51,08</t>
+          <t>32,16; 51,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,49; 38,75</t>
+          <t>20,71; 38,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,94; 37,74</t>
+          <t>17,38; 36,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,01; 36,43</t>
+          <t>15,36; 35,56</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,25; 33,85</t>
+          <t>20,51; 34,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,15; 30,02</t>
+          <t>14,52; 30,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,41; 31,59</t>
+          <t>16,22; 31,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,43; 30,19</t>
+          <t>11,43; 28,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,4; 62,28</t>
+          <t>34,03; 61,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,48; 45,15</t>
+          <t>20,31; 44,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,96; 57,03</t>
+          <t>34,8; 56,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,39; 39,81</t>
+          <t>24,26; 40,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,95; 37,04</t>
+          <t>25,74; 38,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,27; 32,48</t>
+          <t>19,0; 31,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,08; 38,03</t>
+          <t>24,58; 37,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,26; 31,09</t>
+          <t>19,4; 31,42</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,09; 31,18</t>
+          <t>11,14; 32,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,85; 45,03</t>
+          <t>16,14; 45,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,99; 40,82</t>
+          <t>17,09; 39,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,56; 33,42</t>
+          <t>9,57; 32,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,69; 31,26</t>
+          <t>11,59; 32,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,04; 56,86</t>
+          <t>24,08; 53,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,25; 58,57</t>
+          <t>28,71; 57,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,59; 40,86</t>
+          <t>10,87; 39,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,9; 27,97</t>
+          <t>14,11; 28,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,11; 45,67</t>
+          <t>23,53; 45,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25,38; 43,03</t>
+          <t>24,96; 43,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,85; 34,56</t>
+          <t>12,55; 34,14</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>25,66; 34,46</t>
+          <t>25,47; 34,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,08; 31,07</t>
+          <t>21,41; 31,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,77; 32,58</t>
+          <t>22,91; 32,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,97; 28,18</t>
+          <t>17,89; 29,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,12; 48,05</t>
+          <t>35,05; 47,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>33,92; 47,98</t>
+          <t>34,47; 48,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,96; 48,84</t>
+          <t>34,99; 48,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,82; 38,98</t>
+          <t>23,5; 37,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>29,8; 37,02</t>
+          <t>30,19; 37,43</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28,2; 36,87</t>
+          <t>27,81; 36,27</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>28,67; 36,51</t>
+          <t>28,26; 36,42</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,26; 32,25</t>
+          <t>23,28; 31,64</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene dolores de cabeza</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22104</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18829</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19401</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16057</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>17247</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19936</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13785</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25327</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>39351</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>38765</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>33187</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>41384</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15073; 30781</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11686; 26444</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13038; 27172</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10347; 23311</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11131; 24744</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13494; 26318</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8253; 21490</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19109; 32246</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30867; 49892</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>29160; 48937</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24837; 44731</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>32566; 51376</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11199</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10775</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10481</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12689</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28694</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16690</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11906</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15234</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>39893</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27465</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>22387</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>27923</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6185; 18040</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5794; 17368</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5717; 16423</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7157; 20300</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>22555; 34024</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10723; 21678</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6953; 17909</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9543; 20580</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>31117; 49498</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>19120; 36691</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14855; 30126</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>19814; 37926</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41473</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18999</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14585</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12866</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7042</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12987</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5581</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5428</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>48514</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>31985</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>20167</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18295</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31723; 51614</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11626; 27771</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8603; 22045</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6688; 21087</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2367; 11287</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7455; 18749</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2323; 8625</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2774; 9072</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>37408; 60374</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23205; 42789</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13289; 27832</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11731; 27154</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>54514</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>24190</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>31578</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>26085</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>24004</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>21961</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>37935</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>33661</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>78518</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>46152</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>69513</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>59746</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>41196; 68769</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>16726; 34631</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>22197; 43136</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>15224; 37894</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>16996; 30896</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13598; 29564</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>29261; 47607</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>25653; 42846</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>64540; 95514</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>34612; 58086</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>54312; 83652</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>46354; 75087</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12603</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11752</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19018</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9851</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13180</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16475</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20366</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>34226</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25783</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>28227</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>39384</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>44077</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7131; 20840</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6455; 18184</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11807; 27614</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4898; 16385</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>7606; 21137</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10516; 23552</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13588; 26973</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13836; 50472</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>18292; 36720</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>19692; 38092</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>29062; 50067</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>22387; 60919</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>141892</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>84545</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>95064</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>77549</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>90168</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>88049</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>89574</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>113876</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>232061</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>172594</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>184638</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>191425</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>120280; 163652</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>69651; 102071</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>80193; 114490</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>60738; 99292</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>77154; 104241</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>74043; 103828</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>75682; 104613</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>82775; 133288</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>209046; 259159</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>150211; 195919</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>160012; 206249</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>161060; 218917</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P6905-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P6905-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
